--- a/data/trans_bre/P10_3-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P10_3-Urba-trans_bre.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -586,17 +586,17 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,55</t>
+          <t>0,59</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>48,17%</t>
+          <t>48,15%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>11,53%</t>
+          <t>12,21%</t>
         </is>
       </c>
     </row>
@@ -609,22 +609,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 4,31</t>
+          <t>-0,46; 4,31</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,95; 3,02</t>
+          <t>-2,64; 3,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-7,63; 135,8</t>
+          <t>-9,71; 140,71</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-44,76; 88,74</t>
+          <t>-40,89; 85,32</t>
         </is>
       </c>
     </row>
@@ -646,17 +646,17 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>2,35</t>
+          <t>1,77</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>44,01%</t>
+          <t>44,05%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>43,33%</t>
+          <t>32,3%</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,68; 6,42</t>
+          <t>-0,58; 6,2</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,06; 5,98</t>
+          <t>-2,5; 5,11</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-8,59; 125,29</t>
+          <t>-8,03; 122,32</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-29,59; 163,47</t>
+          <t>-34,87; 137,6</t>
         </is>
       </c>
     </row>
@@ -701,22 +701,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,12</t>
+          <t>4,11</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,6</t>
+          <t>3,59</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>42,26%</t>
+          <t>42,19%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>14,73%</t>
+          <t>44,63%</t>
         </is>
       </c>
     </row>
@@ -729,22 +729,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,47; 11,57</t>
+          <t>-3,53; 11,35</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,85; 10,72</t>
+          <t>-4,08; 11,8</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-26,93; 195,81</t>
+          <t>-29,13; 174,46</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-54,31; 200,69</t>
+          <t>-39,43; 266,44</t>
         </is>
       </c>
     </row>
@@ -766,7 +766,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,3</t>
+          <t>1,35</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -776,7 +776,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>22,54%</t>
+          <t>24,62%</t>
         </is>
       </c>
     </row>
@@ -789,22 +789,29 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,54; 4,64</t>
+          <t>0,49; 4,44</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 3,68</t>
+          <t>-1,05; 3,54</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>8,44; 95,13</t>
+          <t>5,82; 87,03</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-16,05; 79,28</t>
+          <t>-14,88; 84,67</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P10_3-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P10_3-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -118,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -131,6 +134,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -579,179 +588,127 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>2,0</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,59</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>48,15%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>12,21%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>1.999958234782823</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0.5971458679748083</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>0.4815136386782206</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>0.126358530046923</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-0,46; 4,31</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-2,64; 3,0</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-9,71; 140,71</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-40,89; 85,32</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-0.4566840847557255</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-2.698958498929431</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>-0.09706228864419156</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>-0.4033347461425076</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>4.313919489627898</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>2.935521311457139</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>1.407095152691848</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>0.8715136993102938</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>2,99</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>1,77</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>44,05%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>32,3%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-0,58; 6,2</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-2,5; 5,11</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-8,03; 122,32</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-34,87; 137,6</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>2.994259724808301</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>2.044982574851822</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>0.4404984968852718</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>0.363950440031495</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>4,11</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>3,59</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>42,19%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>44,63%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-0.5752003972990413</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-2.266249173198522</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.08030342688931141</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>-0.2908462098877839</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-3,53; 11,35</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-4,08; 11,8</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-29,13; 174,46</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-39,43; 266,44</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>6.196957747432523</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>5.720623521308817</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>1.223157630375344</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>1.57848247533292</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -759,57 +716,125 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>2,55</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>1,35</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>43,21%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>24,62%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>4.109565113164626</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>1.257161337670555</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>0.4219051227204549</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>0.1150555271697522</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>0,49; 4,44</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-1,05; 3,54</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>5,82; 87,03</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-14,88; 84,67</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-3.533710669753668</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-11.35402237880517</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>-0.2912944485485614</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>-0.639231709140095</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>11.34825188091184</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>9.709097253492788</v>
+      </c>
+      <c r="E12" s="6" t="n">
+        <v>1.744584365825939</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>1.913715730674165</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>2.549599416079792</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>1.165516709469731</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>0.4320529907825446</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>0.1995151247772303</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>0.4852218695637494</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-1.448165205088493</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>0.05824693199882951</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>-0.1940655118857071</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>4.438510374630657</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>3.573430681824869</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.8702545175504097</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>0.8247267422935566</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -817,13 +842,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
